--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,248 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CID não foi encontrado. Verifique se o texto está legível ou se segue o padrão CID-10 (ex.: J00, M54.5).</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nome do médico não foi encontrado. Certifique-se de que o prefixo 'Dr.' ou 'Dra.' esteja presente e legível.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Data de emissão não foi encontrada. A imagem pode estar ilegível ou sem a expressão 'emitido em'.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15 dias de repouso</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CID não foi encontrado. Verifique se o texto está legível ou se segue o padrão CID-10 (ex.: J00, M54.5).</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nome do médico não foi encontrado. Certifique-se de que o prefixo 'Dr.' ou 'Dra.' esteja presente e legível.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Data de emissão não foi encontrada. A imagem pode estar ilegível ou sem a expressão 'emitido em'.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dias de repouso não foram encontrados. Verifique se a quantidade está indicada de forma numérica no atestado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L54</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATESTO PARA OS DEVIDOS FINS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Data de emissão não foi encontrada. A imagem pode estar ilegível ou sem a expressão 'emitido em'.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15 dias de repouso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G43</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dra Marcela Reges de Faria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20/03/22</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>G43</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dra Marcela Reges de Faria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20/03/22</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10B-34</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dr. Carlos Augusto Trevisan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>06/07/2018</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>H109</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr Fernando Barbosa da Silva</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23/10/23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10B-34</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dr. Carlos Augusto Trevisan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Data de emissão não foi encontrada. A imagem pode estar ilegível ou sem a expressão 'emitido em'.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10B-34</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dr. Carlos Augusto Trevisan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Data de emissão não foi encontrada. A imagem pode estar ilegível ou sem a expressão 'emitido em'.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>J00 (C10-10)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dr. Daniel M. Brandão</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15/08/07</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10B-34</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dr. Carlos Augusto Trevisan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Data de emissão não foi encontrada. A imagem pode estar ilegível ou sem a expressão 'emitido em'.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1 dia de repouso</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,6 +751,28 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10B-34</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dr. Carlos Augusto Trevisan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>06/07/2018</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
